--- a/energies16AFH.xlsx
+++ b/energies16AFH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royelkabetz/Git/2D_TN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0406A0-E13C-EE4C-8CE6-567C3A9A8E39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A08BA7-F7E1-EB4D-868D-705FBEBD401D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,7 +124,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +466,7 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1189,5 +1186,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/energies16AFH.xlsx
+++ b/energies16AFH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royelkabetz/Git/2D_TN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A08BA7-F7E1-EB4D-868D-705FBEBD401D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1471017C-53A9-0940-93E9-062679550F3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="18440" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>E BP</t>
   </si>
@@ -61,12 +61,30 @@
   </si>
   <si>
     <t>D=6</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>FBPU</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>rel error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,12 +137,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1182,7 @@
         <v>-0.56657406388561704</v>
       </c>
     </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H17">
         <f>1/100</f>
         <v>0.01</v>
@@ -1182,6 +1201,219 @@
       </c>
       <c r="M17" s="2">
         <v>-0.56662696566579607</v>
+      </c>
+    </row>
+    <row r="19" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1">
+        <v>2</v>
+      </c>
+      <c r="X19" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="T20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>-0.53659564576018726</v>
+      </c>
+    </row>
+    <row r="21" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" t="s">
+        <v>15</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>-0.53727369578839734</v>
+      </c>
+    </row>
+    <row r="22" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>-0.53153855319630927</v>
+      </c>
+      <c r="J22" s="3">
+        <v>-0.53233702709466657</v>
+      </c>
+      <c r="K22" s="3">
+        <v>-0.54424826495872936</v>
+      </c>
+      <c r="M22">
+        <f>ABS(I22-J22)/ABS(K22)</f>
+        <v>1.4671133557363713E-3</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>-0.53635874725591726</v>
+      </c>
+    </row>
+    <row r="23" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-0.53451138092979089</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-0.53540520247844425</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-0.55392395179471965</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:M27" si="0">ABS(I23-J23)/ABS(K23)</f>
+        <v>1.6136178003449215E-3</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>-0.53728266413352577</v>
+      </c>
+      <c r="V23">
+        <v>-0.54340803780270575</v>
+      </c>
+      <c r="W23">
+        <v>-0.55201106324721627</v>
+      </c>
+      <c r="X23">
+        <v>-0.56227957580305721</v>
+      </c>
+      <c r="Y23">
+        <v>-0.56626631442388065</v>
+      </c>
+      <c r="Z23">
+        <v>-0.56688972452357156</v>
+      </c>
+    </row>
+    <row r="24" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-0.53629624594690595</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-0.53718287888995664</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-0.56275863425970085</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>1.5755119318907325E-3</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>-0.53702827128647512</v>
+      </c>
+      <c r="V24">
+        <v>-0.54307846255149406</v>
+      </c>
+      <c r="W24">
+        <v>-0.55184066531798448</v>
+      </c>
+      <c r="X24">
+        <v>-0.56200632851509935</v>
+      </c>
+      <c r="Y24">
+        <v>-0.56607230341601689</v>
+      </c>
+      <c r="Z24">
+        <v>-0.56675592923470508</v>
+      </c>
+    </row>
+    <row r="25" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="I25" s="3">
+        <v>-0.53636007047430678</v>
+      </c>
+      <c r="J25" s="3">
+        <v>-0.53726634543781815</v>
+      </c>
+      <c r="K25" s="3">
+        <v>-0.56607870246329317</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>1.6009698997113092E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-0.53636327897911829</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-0.53726942808150246</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-0.56662696566579607</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>1.5991986920697275E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-0.53635874725591726</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-0.53727369578839734</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-0.56675592923470508</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>1.6143607596934163E-3</v>
       </c>
     </row>
   </sheetData>
